--- a/tests/data/test_google_drive_data/users/steven/loot_table.xlsx
+++ b/tests/data/test_google_drive_data/users/steven/loot_table.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Item Type Name</t>
+    <t>Item Type</t>
   </si>
   <si>
     <t>Probability</t>
